--- a/EHS2019/EHS/ExcelGenerator/Template/eHSU0005-SP_Data_File_Template.xlsx
+++ b/EHS2019/EHS/ExcelGenerator/Template/eHSU0005-SP_Data_File_Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ce5-fs01\ehs$\Development\InternalChangeControl\2019\CRE16-022 (SDIR Remark)\Front-end\ExcelGenerator\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ce5-fs01\ehs$\Development\InternalChangeControl\2020\CRE20-006 (DHC Integration)\Front-end\ExcelGenerator\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="96">
   <si>
     <t>Sub Report ID</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -335,6 +335,18 @@
   </si>
   <si>
     <t xml:space="preserve">To add a new optional field “Remarks” in the eHS(S) </t>
+  </si>
+  <si>
+    <t>Enrolled DHC (Any practices)</t>
+  </si>
+  <si>
+    <t>Enrolled DHC</t>
+  </si>
+  <si>
+    <t>CRE20-006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To modify Report eHS(S)M0005 by adding Enrolled DHC column </t>
   </si>
 </sst>
 </file>
@@ -342,13 +354,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -485,16 +497,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
@@ -536,7 +548,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -925,13 +937,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -939,7 +951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15">
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -947,7 +959,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15">
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>34</v>
       </c>
@@ -955,7 +967,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15">
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
@@ -963,7 +975,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15">
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>36</v>
       </c>
@@ -971,10 +983,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15">
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6"/>
     </row>
-    <row r="7" spans="1:2" ht="15.75">
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>7</v>
       </c>
@@ -992,30 +1004,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" style="30" customWidth="1"/>
     <col min="2" max="2" width="75.7109375" style="32" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" ht="15">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="28"/>
       <c r="B2" s="31"/>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="15">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" ht="15">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="29"/>
     </row>
   </sheetData>
@@ -1027,11 +1039,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="21" customWidth="1"/>
     <col min="2" max="3" width="26.7109375" style="5" customWidth="1"/>
@@ -1050,22 +1062,23 @@
     <col min="18" max="20" width="19.28515625" style="21" customWidth="1"/>
     <col min="21" max="24" width="26.7109375" style="21" customWidth="1"/>
     <col min="25" max="25" width="26.7109375" style="48" customWidth="1"/>
-    <col min="26" max="119" width="16.28515625" style="5" customWidth="1"/>
+    <col min="26" max="26" width="34.42578125" style="5" customWidth="1"/>
+    <col min="27" max="119" width="16.28515625" style="5" customWidth="1"/>
     <col min="120" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75">
+    <row r="1" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>37</v>
       </c>
       <c r="D1" s="20"/>
       <c r="Q1" s="21"/>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D2" s="20"/>
       <c r="Q2" s="21"/>
     </row>
-    <row r="3" spans="1:25" s="33" customFormat="1" ht="66" customHeight="1">
+    <row r="3" spans="1:26" s="33" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
         <v>45</v>
       </c>
@@ -1140,6 +1153,9 @@
       </c>
       <c r="Y3" s="50" t="s">
         <v>88</v>
+      </c>
+      <c r="Z3" s="33" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1155,7 +1171,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="21" customWidth="1"/>
     <col min="2" max="3" width="26.7109375" style="5" customWidth="1"/>
@@ -1174,16 +1190,16 @@
     <col min="19" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75">
+    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>38</v>
       </c>
       <c r="D1" s="20"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D2" s="20"/>
     </row>
-    <row r="3" spans="1:18" s="23" customFormat="1" ht="15.75">
+    <row r="3" spans="1:18" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>8</v>
       </c>
@@ -1251,7 +1267,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="21" customWidth="1"/>
     <col min="2" max="3" width="26.7109375" style="5" customWidth="1"/>
@@ -1277,18 +1293,18 @@
     <col min="109" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75">
+    <row r="1" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D1" s="20"/>
       <c r="I1" s="21"/>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="D2" s="20"/>
       <c r="I2" s="21"/>
     </row>
-    <row r="3" spans="1:28" s="33" customFormat="1" ht="48" customHeight="1">
+    <row r="3" spans="1:29" s="33" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
         <v>45</v>
       </c>
@@ -1373,8 +1389,11 @@
       <c r="AB3" s="49" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="17" spans="31:31">
+      <c r="AC3" s="33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="31:31" x14ac:dyDescent="0.25">
       <c r="AE17" s="5" t="s">
         <v>24</v>
       </c>
@@ -1392,41 +1411,41 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" style="21" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75">
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75">
+    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
     </row>
   </sheetData>
@@ -1441,7 +1460,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="5" customWidth="1"/>
     <col min="2" max="2" width="34.7109375" style="5" customWidth="1"/>
@@ -1450,120 +1469,120 @@
     <col min="5" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="10"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
     </row>
-    <row r="3" spans="1:3" ht="15.75">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
       <c r="B3" s="18"/>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
       <c r="B4" s="18"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
       <c r="B5" s="18"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
       <c r="B8" s="18"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="18"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="18"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="18"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="13"/>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
     </row>
   </sheetData>
@@ -1577,9 +1596,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="7" customWidth="1"/>
     <col min="2" max="2" width="18.140625" style="7" bestFit="1" customWidth="1"/>
@@ -1588,13 +1609,13 @@
     <col min="5" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" customHeight="1">
+    <row r="1" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" customHeight="1"/>
-    <row r="3" spans="1:4" s="8" customFormat="1" ht="16.5" customHeight="1">
+    <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:4" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>25</v>
       </c>
@@ -1608,7 +1629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -1622,7 +1643,7 @@
         <v>42878</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -1636,7 +1657,7 @@
         <v>43340</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -1650,7 +1671,7 @@
         <v>43795</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -1664,11 +1685,19 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="9"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="9">
+        <v>43992</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/EHS2019/EHS/ExcelGenerator/Template/eHSU0005-SP_Data_File_Template.xlsx
+++ b/EHS2019/EHS/ExcelGenerator/Template/eHSU0005-SP_Data_File_Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ce5-fs01\ehs$\Development\InternalChangeControl\2020\CRE20-006 (DHC Integration)\Front-end\ExcelGenerator\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub2\EHS\EHS2019\EHS\ExcelGenerator\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="98">
   <si>
     <t>Sub Report ID</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -347,6 +347,14 @@
   </si>
   <si>
     <t xml:space="preserve">To modify Report eHS(S)M0005 by adding Enrolled DHC column </t>
+  </si>
+  <si>
+    <t>CRE21-010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VSS 2021-2022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1289,8 +1297,8 @@
     <col min="25" max="26" width="19.28515625" style="5" customWidth="1"/>
     <col min="27" max="28" width="26.7109375" style="5" customWidth="1"/>
     <col min="29" max="74" width="22.7109375" style="5" customWidth="1"/>
-    <col min="75" max="108" width="20.7109375" style="5" customWidth="1"/>
-    <col min="109" max="16384" width="9.140625" style="5"/>
+    <col min="75" max="115" width="20.7109375" style="5" customWidth="1"/>
+    <col min="116" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
@@ -1594,11 +1602,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1699,6 +1705,20 @@
         <v>43992</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="9">
+        <v>44440</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
